--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_9.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999956988573752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991557501253007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9999729122069347</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.999980628930408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999896845897214</v>
       </c>
       <c r="G2" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.014927841937864e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007880701997453267</v>
       </c>
       <c r="I2" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>5.884653681239905e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001792999143558957</v>
+        <v>9.13252025336464e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>7.508586967302272e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001378551485375051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00200372848508421</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006072201353</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002089031354984021</v>
       </c>
       <c r="P2" t="n">
-        <v>102.0946835896514</v>
+        <v>106.8509823656943</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.0685924092476</v>
+        <v>156.8248911852905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_22</t>
+          <t>model_24_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999955747339707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991525401830634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9999625088355493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999798056486178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999878652874153</v>
       </c>
       <c r="G3" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.130791591609757e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007910665399235841</v>
       </c>
       <c r="I3" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>8.14472106927479e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001792999143558957</v>
+        <v>9.520657706890568e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>8.832857085091543e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001397167242800139</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002032434892342128</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006247434394</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002118959853429363</v>
       </c>
       <c r="P3" t="n">
-        <v>102.0946835896514</v>
+        <v>106.7940830013736</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.0685924092476</v>
+        <v>156.7679918209698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_21</t>
+          <t>model_24_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.999995352940906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991496455230323</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9999513575095474</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999789053455455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999859098884744</v>
       </c>
       <c r="G4" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.337825681941207e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007937685780017181</v>
       </c>
       <c r="I4" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>1.056727692125186e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001792999143558957</v>
+        <v>9.945106961115799e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.025619194118383e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001415253753979476</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00208274474718848</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006560554015</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002171411502952281</v>
       </c>
       <c r="P4" t="n">
-        <v>102.0946835896514</v>
+        <v>106.6962746606726</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.0685924092476</v>
+        <v>156.6701834802688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_20</t>
+          <t>model_24_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999950737512685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991470292813466</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9999400762357623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999779782574557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999839261933555</v>
       </c>
       <c r="G5" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.598436953567153e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007962107247757051</v>
       </c>
       <c r="I5" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>1.30180631166609e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.038218405261897e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.170012358463994e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001431369786341654</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002144396640914911</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006954704092</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.00223568804543166</v>
       </c>
       <c r="P5" t="n">
-        <v>102.0946835896514</v>
+        <v>106.5795882098293</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.0685924092476</v>
+        <v>156.5534970294255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_19</t>
+          <t>model_24_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.999994754483212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.999144751410838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999989841517247</v>
+        <v>0.999928975425291</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999769846598181</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.99998194788943</v>
       </c>
       <c r="G6" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.896459670013199e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007983370169084485</v>
       </c>
       <c r="I6" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>1.542964478548343e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.085061717166699e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.314013097857521e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001446332524280266</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00221279453858988</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000007405435466</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.00230699778321382</v>
       </c>
       <c r="P6" t="n">
-        <v>102.0946835896514</v>
+        <v>106.4539962606245</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.0685924092476</v>
+        <v>156.4279050802207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_18</t>
+          <t>model_24_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999944152073906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991427131234445</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9999182117314751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999760020513947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999800234509867</v>
       </c>
       <c r="G7" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>5.213158756742823e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008002396687197888</v>
       </c>
       <c r="I7" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>1.776798996866684e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.131386940901671e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.454092968884178e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001460002366502078</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002283234275483535</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000007884413096</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002380436285537395</v>
       </c>
       <c r="P7" t="n">
-        <v>102.0946835896514</v>
+        <v>106.3286491972684</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.0685924092476</v>
+        <v>156.3025580168646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_17</t>
+          <t>model_24_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999940602671938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991407826640476</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9999076032325431</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999750930375968</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999781460048626</v>
       </c>
       <c r="G8" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>5.544479850370101e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008020416678294763</v>
       </c>
       <c r="I8" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>2.007262003366563e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.174242534809795e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.590752269088179e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001472641216884914</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002354671919900966</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000008385505138</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002454915178373986</v>
       </c>
       <c r="P8" t="n">
-        <v>102.0946835896514</v>
+        <v>106.2054154934502</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.0685924092476</v>
+        <v>156.1793243130465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_16</t>
+          <t>model_24_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999937093732275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991390810832386</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998976095028784</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999742054853771</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999763672487209</v>
       </c>
       <c r="G9" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>5.872023965544638e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008036300188239457</v>
       </c>
       <c r="I9" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>2.224369531909058e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.216086319344623e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.720227925626841e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.000148400941318867</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.0024232259419098</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000008880884855</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002526387687026125</v>
       </c>
       <c r="P9" t="n">
-        <v>102.0946835896514</v>
+        <v>106.0906223706693</v>
       </c>
       <c r="Q9" t="n">
-        <v>152.0685924092476</v>
+        <v>156.0645311902656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_15</t>
+          <t>model_24_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.999993365479544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991375181870502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998881667459347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999733739752051</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.999974688861099</v>
       </c>
       <c r="G10" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>6.193033623927867e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008050889138124977</v>
       </c>
       <c r="I10" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>2.42950752257278e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.255287993006168e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.842397757789474e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001494113158103765</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002488580644449335</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000065488240254</v>
+        <v>1.00000936638182</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002594524674555653</v>
       </c>
       <c r="P10" t="n">
-        <v>102.0946835896514</v>
+        <v>105.984171013358</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.0685924092476</v>
+        <v>155.9580798329543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_14</t>
+          <t>model_24_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999930315261419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991360665251152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998791996841445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999726095868652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999731031967157</v>
       </c>
       <c r="G11" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>6.504764465819011e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008064439765082777</v>
       </c>
       <c r="I11" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>2.624311333452119e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.291325197678133e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>1.957818265565125e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001503457191654542</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002550443974256053</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000009837845447</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.00265902165438699</v>
       </c>
       <c r="P11" t="n">
-        <v>102.0946835896514</v>
+        <v>105.8859513096615</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.0685924092476</v>
+        <v>155.8598601292577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_13</t>
+          <t>model_24_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999927110922394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991347789555032</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998708935637427</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999718788049975</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999716270454595</v>
       </c>
       <c r="G12" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>6.803875448425487e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008076458662233164</v>
       </c>
       <c r="I12" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>2.804756605908547e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.32577802009738e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.065267313002963e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001512112463437584</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002608423939551523</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000010290222721</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002719469946840162</v>
       </c>
       <c r="P12" t="n">
-        <v>102.0946835896514</v>
+        <v>105.7960363784764</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.0685924092476</v>
+        <v>155.7699451980726</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_23</t>
+          <t>model_24_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.999992405965473</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991335583477882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998630311123918</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999712339354502</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999702449234826</v>
       </c>
       <c r="G13" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>7.088697891360891e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.000808785249946841</v>
       </c>
       <c r="I13" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>2.97556344563189e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.356180493094593e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.165871969363242e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001519854260113664</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002662460871329547</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000065488240254</v>
+        <v>1.00001072098992</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002775807342675846</v>
       </c>
       <c r="P13" t="n">
-        <v>102.0946835896514</v>
+        <v>105.7140177770754</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.0685924092476</v>
+        <v>155.6879265966716</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999921186991544</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991324849873863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998558019955165</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999706118531161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999689646912054</v>
       </c>
       <c r="G14" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>7.356848390216163e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008097871847669287</v>
       </c>
       <c r="I14" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.132611489854567e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.385508659451152e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.259060074652859e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001526981586090696</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002712351081666266</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000065488240254</v>
+        <v>1.00001112654237</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002827821482553572</v>
       </c>
       <c r="P14" t="n">
-        <v>102.0946835896514</v>
+        <v>105.6397578495634</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.0685924092476</v>
+        <v>155.6136666691597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_10</t>
+          <t>model_24_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999918519819984</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991315343623169</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999989841517247</v>
+        <v>0.999849217023154</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999700252734955</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999677920796042</v>
       </c>
       <c r="G15" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>7.605817147895947e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008106745515415355</v>
       </c>
       <c r="I15" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.275665897280027e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.413163044975354e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.34441447112769e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001533370096582855</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002757864599268055</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000011503084238</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002875272604825639</v>
       </c>
       <c r="P15" t="n">
-        <v>102.0946835896514</v>
+        <v>105.5731943785104</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.0685924092476</v>
+        <v>155.5471031981066</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_9</t>
+          <t>model_24_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999916023845733</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991306577712172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998430974375495</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999694936122153</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999667067009342</v>
       </c>
       <c r="G16" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>7.838805388110412e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008114928108552077</v>
       </c>
       <c r="I16" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.40861006836287e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.438228296983891e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.42341918267338e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001539045227431261</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00279978666832143</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000011855457073</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002918979383149262</v>
       </c>
       <c r="P16" t="n">
-        <v>102.0946835896514</v>
+        <v>105.5128482183551</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.0685924092476</v>
+        <v>155.4867570379513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_8</t>
+          <t>model_24_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.999991375076935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991299000342131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998376359697214</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999689835280045</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999657265183888</v>
       </c>
       <c r="G17" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>8.05098709078096e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008122001250877133</v>
       </c>
       <c r="I17" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.52725704223e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.462276294767922e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.494766668498961e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001544007436059346</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002837426138383334</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000012176361974</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002958221243376147</v>
       </c>
       <c r="P17" t="n">
-        <v>102.0946835896514</v>
+        <v>105.4594317081564</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.0685924092476</v>
+        <v>155.4333405277527</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_7</t>
+          <t>model_24_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999911621630736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991291847503744</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998325402201983</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999685362255765</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999648212421387</v>
       </c>
       <c r="G18" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>8.249732834588684e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008128678111538665</v>
       </c>
       <c r="I18" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.637959014582405e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.483364435842954e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.560661725212679e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001548473558693075</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002872234815363933</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000012476946249</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002994511797799704</v>
       </c>
       <c r="P18" t="n">
-        <v>102.0946835896514</v>
+        <v>105.4106594836565</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.0685924092476</v>
+        <v>155.3845683032528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_6</t>
+          <t>model_24_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999909680932459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.999128540640606</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998278925506975</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999681293312545</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999639959171519</v>
       </c>
       <c r="G19" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>8.430888499983394e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008134690593494645</v>
       </c>
       <c r="I19" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.738926728603686e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.50254753060354e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.620737129603614e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001552400986562947</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002903599231984916</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000012750927182</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003027211462569535</v>
       </c>
       <c r="P19" t="n">
-        <v>102.0946835896514</v>
+        <v>105.3672167882322</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.0685924092476</v>
+        <v>155.3411256078285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_5</t>
+          <t>model_24_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999907888375538</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.999127953694427</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998236432901744</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999677580956178</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999632415931291</v>
       </c>
       <c r="G20" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>8.598215820294717e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008140169478436259</v>
       </c>
       <c r="I20" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.83123925668554e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.520049491221151e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.675644373953346e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001556143274894709</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00293227144382895</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000013003994042</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003057104309831431</v>
       </c>
       <c r="P20" t="n">
-        <v>102.0946835896514</v>
+        <v>105.3279116779692</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.0685924092476</v>
+        <v>155.3018204975655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_4</t>
+          <t>model_24_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.999990624661359</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991274272390612</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998198037662002</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999674154879062</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999625576835757</v>
       </c>
       <c r="G21" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>8.751467091573729e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008145083708188472</v>
       </c>
       <c r="I21" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.914650514423493e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.536201783944441e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.725426149183967e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001559392140674704</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002958287864893092</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000013235772199</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003084228303801689</v>
       </c>
       <c r="P21" t="n">
-        <v>102.0946835896514</v>
+        <v>105.2925784080819</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.0685924092476</v>
+        <v>155.2664872276782</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_3</t>
+          <t>model_24_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999904749620248</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991269463767539</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998162555898167</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999671124319544</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999619300593512</v>
       </c>
       <c r="G22" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>8.89120484899806e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008149572346752372</v>
       </c>
       <c r="I22" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>3.991732427913229e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.550489402939928e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.771110915426579e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001562424593961938</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002981812343021951</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000013447112436</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003108754267666877</v>
       </c>
       <c r="P22" t="n">
-        <v>102.0946835896514</v>
+        <v>105.2608959781008</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.0685924092476</v>
+        <v>155.2348047976971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_2</t>
+          <t>model_24_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999903368757568</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991265190211376</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998130264792358</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.999966829438419</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999613565452443</v>
       </c>
       <c r="G23" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>9.020102318936586e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008153561523844281</v>
       </c>
       <c r="I23" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>4.061882836332523e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.563831176252898e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.81285700629271e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001565219056903206</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.003003348517727602</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000013642057755</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003131207281915775</v>
       </c>
       <c r="P23" t="n">
-        <v>102.0946835896514</v>
+        <v>105.2321097607825</v>
       </c>
       <c r="Q23" t="n">
-        <v>152.0685924092476</v>
+        <v>155.2060185803788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_1</t>
+          <t>model_24_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999902120121478</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991261322083942</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998101337387982</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999665753937595</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999608426013423</v>
       </c>
       <c r="G24" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>9.136657017056839e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008157172251012617</v>
       </c>
       <c r="I24" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>4.124725813697211e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.575808150402313e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.850266982049762e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001567600791943402</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.003022690360764205</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000013818335791</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003151372547253581</v>
       </c>
       <c r="P24" t="n">
-        <v>102.0946835896514</v>
+        <v>105.2064319849188</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.0685924092476</v>
+        <v>155.1803408045151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_11</t>
+          <t>model_24_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999900978726491</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991257590674516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998074318497803</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999663580088467</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999603690095301</v>
       </c>
       <c r="G25" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>9.243201228905187e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008160655357921856</v>
       </c>
       <c r="I25" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>4.183422663298031e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.586056795218893e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.884739729258463e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001569619805690207</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.003040263348610641</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000013979473907</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003169693653573739</v>
       </c>
       <c r="P25" t="n">
-        <v>102.0946835896514</v>
+        <v>105.1832445579341</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.0685924092476</v>
+        <v>155.1571533775304</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999899937982998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991254389310174</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999989841517247</v>
+        <v>0.9998050329611997</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997415745692043</v>
+        <v>0.9999661515506193</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998859880811823</v>
+        <v>0.9999599441719114</v>
       </c>
       <c r="G26" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>9.340350065671601e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008163643691011682</v>
       </c>
       <c r="I26" t="n">
-        <v>9.243571477329993e-06</v>
+        <v>4.235537017841746e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001792999143558957</v>
+        <v>1.595790299783957e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>9.427174291661285e-05</v>
+        <v>2.915663658812851e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001571612018908022</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.003056198629944003</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000065488240254</v>
+        <v>1.0000141264024</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.003186307332824042</v>
       </c>
       <c r="P26" t="n">
-        <v>102.0946835896514</v>
+        <v>105.1623336523225</v>
       </c>
       <c r="Q26" t="n">
-        <v>152.0685924092476</v>
+        <v>155.1362424719188</v>
       </c>
     </row>
   </sheetData>
